--- a/public/sample_uploads/fund_ratios/capital_distributions.xlsx
+++ b/public/sample_uploads/fund_ratios/capital_distributions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ausan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\fund_ratios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E47EC7D-2BE7-4223-8595-054C61E930B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CD5616-943F-46EF-800B-F2B7E86F5B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="735" windowWidth="23985" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CapitalDistribution" sheetId="1" r:id="rId1"/>
@@ -383,7 +383,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Fund *</t>
   </si>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t>Commitment Percentage</t>
+  </si>
+  <si>
+    <t>Send Notification</t>
   </si>
 </sst>
 </file>
@@ -547,9 +550,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -587,7 +590,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -693,7 +696,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -835,7 +838,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -843,32 +846,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N191"/>
+  <dimension ref="A1:O191"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.9140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.9375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.9140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.9375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.8125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.9140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.9375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.1875" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -911,8 +914,11 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="14" x14ac:dyDescent="0.3">
+      <c r="O1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -939,580 +945,583 @@
         <v>17</v>
       </c>
       <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="5"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D62" s="3"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D80" s="3"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D87" s="3"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D88" s="3"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D89" s="3"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D90" s="3"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D91" s="3"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D92" s="3"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D93" s="3"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D94" s="3"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D95" s="3"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D96" s="3"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D98" s="3"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D99" s="3"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D100" s="3"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D101" s="3"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D102" s="3"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D106" s="3"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D107" s="3"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D108" s="3"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D109" s="3"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D110" s="3"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D111" s="3"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D112" s="3"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D113" s="3"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D114" s="3"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D115" s="3"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D116" s="3"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D117" s="3"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D118" s="3"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D119" s="3"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D120" s="3"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D121" s="3"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D122" s="3"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D123" s="3"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D124" s="3"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D125" s="3"/>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D126" s="3"/>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D127" s="3"/>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D128" s="3"/>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D129" s="3"/>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D130" s="3"/>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D131" s="3"/>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D132" s="3"/>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D133" s="3"/>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D134" s="3"/>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D135" s="3"/>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D136" s="3"/>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D137" s="3"/>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D138" s="3"/>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D139" s="3"/>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D140" s="3"/>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D141" s="3"/>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D142" s="3"/>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D143" s="3"/>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D144" s="3"/>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D145" s="3"/>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D146" s="3"/>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D147" s="3"/>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D148" s="3"/>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D149" s="3"/>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D150" s="3"/>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D151" s="3"/>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D152" s="3"/>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D153" s="3"/>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D154" s="3"/>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D155" s="3"/>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D156" s="3"/>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D157" s="3"/>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D158" s="3"/>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D159" s="3"/>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D160" s="3"/>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D161" s="3"/>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D162" s="3"/>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D163" s="3"/>
     </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D164" s="3"/>
     </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D165" s="3"/>
     </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D166" s="3"/>
     </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D167" s="3"/>
     </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D168" s="3"/>
     </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D169" s="3"/>
     </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D170" s="3"/>
     </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D171" s="3"/>
     </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D172" s="3"/>
     </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D173" s="3"/>
     </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D174" s="3"/>
     </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D175" s="3"/>
     </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D176" s="3"/>
     </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D177" s="3"/>
     </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D178" s="3"/>
     </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D179" s="3"/>
     </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D180" s="3"/>
     </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D181" s="3"/>
     </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D182" s="3"/>
     </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D183" s="3"/>
     </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D184" s="3"/>
     </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D185" s="3"/>
     </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D186" s="3"/>
     </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D187" s="3"/>
     </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D188" s="3"/>
     </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D189" s="3"/>
     </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D190" s="3"/>
     </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D191" s="3"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Amount cannot be more than the Gross amount" prompt="Less than / equal to gross amout" sqref="D2:D191" xr:uid="{73646F8A-D872-4509-8942-D1241A841B31}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H191" xr:uid="{B8321C99-7069-4443-A0C1-F2F3B192133C}">
       <formula1>"Yes,No"</formula1>

--- a/public/sample_uploads/fund_ratios/capital_distributions.xlsx
+++ b/public/sample_uploads/fund_ratios/capital_distributions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\fund_ratios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f10f76f200b1328/Desktop/ratios auto test/bulk files/fund 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CD5616-943F-46EF-800B-F2B7E86F5B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{E56A1B4A-54EF-465A-8B97-398DE0931EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E69E267-4D0E-48B2-818C-1722A0E62132}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="735" windowWidth="23985" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CapitalDistribution" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{C1113430-FE0E-4DBA-8DBA-78F34B985766}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{C1113430-FE0E-4DBA-8DBA-78F34B985766}">
       <text>
         <r>
           <rPr>
@@ -230,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{58EFFF56-2CD1-427F-A405-11B16D828151}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{58EFFF56-2CD1-427F-A405-11B16D828151}">
       <text>
         <r>
           <rPr>
@@ -254,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{A0E463FE-5C5B-4B9D-8D9C-E2BE743808EF}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{A0E463FE-5C5B-4B9D-8D9C-E2BE743808EF}">
       <text>
         <r>
           <rPr>
@@ -278,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{7B023418-75A9-4D10-8903-532DD8C6B918}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{7B023418-75A9-4D10-8903-532DD8C6B918}">
       <text>
         <r>
           <rPr>
@@ -303,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{2ABF67B8-58B2-4AC8-8C17-DAFD69A2DE15}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{2ABF67B8-58B2-4AC8-8C17-DAFD69A2DE15}">
       <text>
         <r>
           <rPr>
@@ -328,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{3E9CBC99-5D51-4417-9EF1-14208A629E5E}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{3E9CBC99-5D51-4417-9EF1-14208A629E5E}">
       <text>
         <r>
           <rPr>
@@ -353,7 +353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{7A6E468D-0F53-4407-92A9-4C75835F66C7}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{7A6E468D-0F53-4407-92A9-4C75835F66C7}">
       <text>
         <r>
           <rPr>
@@ -383,7 +383,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Fund *</t>
   </si>
@@ -433,13 +433,16 @@
     <t>Income *</t>
   </si>
   <si>
-    <t>Fund X</t>
+    <t>Send Notification</t>
+  </si>
+  <si>
+    <t>Demo Fund 1</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>Commitment Percentage</t>
-  </si>
-  <si>
-    <t>Send Notification</t>
   </si>
 </sst>
 </file>
@@ -524,14 +527,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -846,7 +848,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O191"/>
+  <dimension ref="A1:O188"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -854,21 +856,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.6875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.0625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.9375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.9375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.3125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.8125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.9375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.1875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="14.9375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.9375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.1875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -894,67 +897,65 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>16</v>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2">
-        <v>3000000</v>
-      </c>
-      <c r="D2">
-        <v>750000</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="6">
-        <v>45550</v>
+      <c r="C2" s="3">
+        <v>50000000</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>45473</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="5"/>
-      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D4" s="3"/>
@@ -1511,19 +1512,10 @@
     <row r="188" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D188" s="3"/>
     </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D189" s="3"/>
-    </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D190" s="3"/>
-    </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D191" s="3"/>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Amount cannot be more than the Gross amount" prompt="Less than / equal to gross amout" sqref="D2:D191" xr:uid="{73646F8A-D872-4509-8942-D1241A841B31}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H191" xr:uid="{B8321C99-7069-4443-A0C1-F2F3B192133C}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Amount cannot be more than the Gross amount" prompt="Less than / equal to gross amout" sqref="D2:D188" xr:uid="{73646F8A-D872-4509-8942-D1241A841B31}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:I188" xr:uid="{B8321C99-7069-4443-A0C1-F2F3B192133C}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/public/sample_uploads/fund_ratios/capital_distributions.xlsx
+++ b/public/sample_uploads/fund_ratios/capital_distributions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f10f76f200b1328/Desktop/ratios auto test/bulk files/fund 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f10f76f200b1328/Desktop/ratios auto test/bulk files/fund 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{E56A1B4A-54EF-465A-8B97-398DE0931EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E69E267-4D0E-48B2-818C-1722A0E62132}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{E56A1B4A-54EF-465A-8B97-398DE0931EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5888093-E382-44D1-BEFF-B9F4AA405B00}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,7 +436,7 @@
     <t>Send Notification</t>
   </si>
   <si>
-    <t>Demo Fund 1</t>
+    <t>Demo Fund 2</t>
   </si>
   <si>
     <t>No</t>
@@ -929,7 +929,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="3">
-        <v>50000000</v>
+        <v>10000000</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
